--- a/data/population_models/models_output_hainich_female.xlsx
+++ b/data/population_models/models_output_hainich_female.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,17 +412,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>~sundur</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -432,39 +432,39 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>469.3735418287373</v>
+        <v>472.9097765517241</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4947335143042736</v>
+        <v>0.7143971320832034</v>
       </c>
       <c r="J2">
-        <v>-3034.0978</v>
+        <v>-3016.0718</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>~temp + sundur</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -474,23 +474,23 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>471.2078376744186</v>
+        <v>474.8062828057554</v>
       </c>
       <c r="H3">
-        <v>1.834295845681311</v>
+        <v>1.896506254031237</v>
       </c>
       <c r="I3">
-        <v>0.1977238459649231</v>
+        <v>0.2767697375475703</v>
       </c>
       <c r="J3">
-        <v>-3034.3575</v>
+        <v>-3016.2274</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -516,39 +516,39 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>472.3105896943231</v>
+        <v>483.0408328057554</v>
       </c>
       <c r="H4">
-        <v>2.937047865585839</v>
+        <v>10.13105625403125</v>
       </c>
       <c r="I4">
-        <v>0.1139198726610005</v>
+        <v>0.004508258279373372</v>
       </c>
       <c r="J4">
-        <v>-3035.3549</v>
+        <v>-3007.9928</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -558,39 +558,39 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~1)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>473.195545652174</v>
+        <v>484.9200428818444</v>
       </c>
       <c r="H5">
-        <v>3.82200382343666</v>
+        <v>12.01026633012026</v>
       </c>
       <c r="I5">
-        <v>0.07318696643480774</v>
+        <v>0.001761746858499358</v>
       </c>
       <c r="J5">
-        <v>-3028.1878</v>
+        <v>-3008.1716</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>~sundur + wind</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -600,23 +600,23 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>473.8277176744186</v>
+        <v>486.6066323809524</v>
       </c>
       <c r="H6">
-        <v>4.454175845681277</v>
+        <v>13.6968558292283</v>
       </c>
       <c r="I6">
-        <v>0.05335306035444126</v>
+        <v>0.0007580629119403072</v>
       </c>
       <c r="J6">
-        <v>-3031.7376</v>
+        <v>-3008.549</v>
       </c>
     </row>
     <row r="7">
@@ -627,12 +627,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>~temp</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -642,39 +642,39 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>475.0390518287373</v>
+        <v>487.5846765517241</v>
       </c>
       <c r="H7">
-        <v>5.66551000000004</v>
+        <v>14.67489999999998</v>
       </c>
       <c r="I7">
-        <v>0.02911531320261912</v>
+        <v>0.0004648637231292694</v>
       </c>
       <c r="J7">
-        <v>-3028.4323</v>
+        <v>-3001.3969</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>~wind</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -684,39 +684,39 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>475.2799518287373</v>
+        <v>489.3262628818443</v>
       </c>
       <c r="H8">
-        <v>5.906409999999994</v>
+        <v>16.41648633012022</v>
       </c>
       <c r="I8">
-        <v>0.0258113485801722</v>
+        <v>0.0001946009650788937</v>
       </c>
       <c r="J8">
-        <v>-3028.1914</v>
+        <v>-3003.7654</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>~temp + wind</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -726,39 +726,39 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F9">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>477.1310876744186</v>
+        <v>489.6183728057554</v>
       </c>
       <c r="H9">
-        <v>7.757545845681307</v>
+        <v>16.70859625403125</v>
       </c>
       <c r="I9">
-        <v>0.01022919963466412</v>
+        <v>0.0001681566805461062</v>
       </c>
       <c r="J9">
-        <v>-3028.4343</v>
+        <v>-3001.4153</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -768,39 +768,39 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~1)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F10">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>482.3294958823529</v>
+        <v>489.8244228057554</v>
       </c>
       <c r="H10">
-        <v>12.95595405361564</v>
+        <v>16.91464625403125</v>
       </c>
       <c r="I10">
-        <v>0.0007603641892143066</v>
+        <v>0.0001516948848722298</v>
       </c>
       <c r="J10">
-        <v>-3040.2099</v>
+        <v>-3001.2092</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>~wind</t>
+          <t>~temp + wind</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -810,39 +810,39 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~wind)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>484.0895202650957</v>
+        <v>489.8778465517241</v>
       </c>
       <c r="H11">
-        <v>14.7159784363584</v>
+        <v>16.96807000000001</v>
       </c>
       <c r="I11">
-        <v>0.0003153822273754173</v>
+        <v>0.000147696470685358</v>
       </c>
       <c r="J11">
-        <v>-3040.5997</v>
+        <v>-2999.1037</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>~sundur</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -852,39 +852,39 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F12">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>484.3650902650957</v>
+        <v>490.2053265517241</v>
       </c>
       <c r="H12">
-        <v>14.99154843635841</v>
+        <v>17.29554999999999</v>
       </c>
       <c r="I12">
-        <v>0.0002747881187615482</v>
+        <v>0.0001253887980037696</v>
       </c>
       <c r="J12">
-        <v>-3040.3241</v>
+        <v>-2998.7762</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>~temp</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -894,39 +894,39 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>484.4578202650957</v>
+        <v>490.7057428818443</v>
       </c>
       <c r="H13">
-        <v>15.08427843635843</v>
+        <v>17.79596633012022</v>
       </c>
       <c r="I13">
-        <v>0.0002623384131307853</v>
+        <v>9.763256826878725E-05</v>
       </c>
       <c r="J13">
-        <v>-3040.2314</v>
+        <v>-3002.3859</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>~temp + wind</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -936,39 +936,39 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F14">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G14">
-        <v>486.244596460177</v>
+        <v>491.3143886657102</v>
       </c>
       <c r="H14">
-        <v>16.87105463143973</v>
+        <v>18.4046121139861</v>
       </c>
       <c r="I14">
-        <v>0.0001073663937684331</v>
+        <v>7.201599427843956E-05</v>
       </c>
       <c r="J14">
-        <v>-3040.6009</v>
+        <v>-2995.621</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>~sundur + wind</t>
+          <t>~temp + wind</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -978,39 +978,39 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F15">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>486.855806460177</v>
+        <v>491.4105128057554</v>
       </c>
       <c r="H15">
-        <v>17.4822646314397</v>
+        <v>18.50073625403127</v>
       </c>
       <c r="I15">
-        <v>7.909441187347966E-05</v>
+        <v>6.863661694817667E-05</v>
       </c>
       <c r="J15">
-        <v>-3039.9897</v>
+        <v>-2999.6231</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>~temp + wind + sundur</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1020,39 +1020,39 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F16">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>488.2541525701625</v>
+        <v>491.7460128057554</v>
       </c>
       <c r="H16">
-        <v>18.88061074142519</v>
+        <v>18.83623625403123</v>
       </c>
       <c r="I16">
-        <v>3.930961600208361E-05</v>
+        <v>5.803673470710407E-05</v>
       </c>
       <c r="J16">
-        <v>-3040.7539</v>
+        <v>-2999.2876</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>~temp + sundur</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1062,34 +1062,34 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F17">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>488.331286460177</v>
+        <v>492.9804665517241</v>
       </c>
       <c r="H17">
-        <v>18.95774463143971</v>
+        <v>20.07069000000001</v>
       </c>
       <c r="I17">
-        <v>3.78224267109667E-05</v>
+        <v>3.130723728857109E-05</v>
       </c>
       <c r="J17">
-        <v>-3038.5142</v>
+        <v>-2996.0011</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>~temp</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1104,39 +1104,39 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>489.6763618287373</v>
+        <v>493.0369738395415</v>
       </c>
       <c r="H18">
-        <v>20.30282</v>
+        <v>20.12719728781741</v>
       </c>
       <c r="I18">
-        <v>1.93050079522855E-05</v>
+        <v>3.043507268618858E-05</v>
       </c>
       <c r="J18">
-        <v>-3013.795</v>
+        <v>-2991.858</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>~temp + sundur</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1146,39 +1146,39 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F19">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G19">
-        <v>490.2475876744186</v>
+        <v>493.1144165517241</v>
       </c>
       <c r="H19">
-        <v>20.87404584568128</v>
+        <v>20.20463999999998</v>
       </c>
       <c r="I19">
-        <v>1.450874569240468E-05</v>
+        <v>2.927911004798547E-05</v>
       </c>
       <c r="J19">
-        <v>-3015.3178</v>
+        <v>-2995.8671</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>~temp + wind</t>
+          <t>~temp</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1188,39 +1188,39 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F20">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G20">
-        <v>491.0528576744186</v>
+        <v>493.2266486657102</v>
       </c>
       <c r="H20">
-        <v>21.67931584568129</v>
+        <v>20.31687211398611</v>
       </c>
       <c r="I20">
-        <v>9.699910113377329E-06</v>
+        <v>2.768133161587044E-05</v>
       </c>
       <c r="J20">
-        <v>-3014.5125</v>
+        <v>-2993.7087</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>~temp + wind + sundur</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1230,39 +1230,39 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F21">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>491.7586896943232</v>
+        <v>493.2680928818444</v>
       </c>
       <c r="H21">
-        <v>22.38514786558585</v>
+        <v>20.35831633012026</v>
       </c>
       <c r="I21">
-        <v>6.815508034274448E-06</v>
+        <v>2.711361849183469E-05</v>
       </c>
       <c r="J21">
-        <v>-3015.9068</v>
+        <v>-2999.8236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~temp + wind</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1272,39 +1272,39 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~time)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F22">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>501.5990761434978</v>
+        <v>493.4622128818444</v>
       </c>
       <c r="H22">
-        <v>32.22553431476047</v>
+        <v>20.55243633012026</v>
       </c>
       <c r="I22">
-        <v>4.97376734595239E-08</v>
+        <v>2.460565092692408E-05</v>
       </c>
       <c r="J22">
-        <v>-3044.9424</v>
+        <v>-2999.6294</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>~sundur</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1314,39 +1314,39 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F23">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G23">
-        <v>504.0462418287373</v>
+        <v>494.5903386657102</v>
       </c>
       <c r="H23">
-        <v>34.67270000000002</v>
+        <v>21.68056211398607</v>
       </c>
       <c r="I23">
-        <v>1.463154509143868E-08</v>
+        <v>1.399798285014777E-05</v>
       </c>
       <c r="J23">
-        <v>-2999.4251</v>
+        <v>-2992.345</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>~sundur + wind</t>
+          <t>~temp</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1356,39 +1356,39 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F24">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>504.2330076744186</v>
+        <v>494.6760465517241</v>
       </c>
       <c r="H24">
-        <v>34.85946584568131</v>
+        <v>21.76627000000002</v>
       </c>
       <c r="I24">
-        <v>1.332706457198763E-08</v>
+        <v>1.341078580613165E-05</v>
       </c>
       <c r="J24">
-        <v>-3001.3323</v>
+        <v>-2994.3055</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1398,39 +1398,39 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~1)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F25">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G25">
-        <v>507.0042256521739</v>
+        <v>495.8712328057554</v>
       </c>
       <c r="H25">
-        <v>37.63068382343664</v>
+        <v>22.96145625403125</v>
       </c>
       <c r="I25">
-        <v>3.334050425731481E-09</v>
+        <v>7.377731208899846E-06</v>
       </c>
       <c r="J25">
-        <v>-2994.3791</v>
+        <v>-2995.1624</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>~wind</t>
+          <t>~temp</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1440,39 +1440,39 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F26">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G26">
-        <v>508.6548518287373</v>
+        <v>495.9270028057554</v>
       </c>
       <c r="H26">
-        <v>39.28131000000002</v>
+        <v>23.01722625403124</v>
       </c>
       <c r="I26">
-        <v>1.460640182276794E-09</v>
+        <v>7.174845060660857E-06</v>
       </c>
       <c r="J26">
-        <v>-2994.8165</v>
+        <v>-2995.1066</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1482,23 +1482,23 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~time)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F27">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>508.7346702650957</v>
+        <v>496.4208728057554</v>
       </c>
       <c r="H27">
-        <v>39.3611284363584</v>
+        <v>23.51109625403126</v>
       </c>
       <c r="I27">
-        <v>1.403495067587637E-09</v>
+        <v>5.60492775512868E-06</v>
       </c>
       <c r="J27">
-        <v>-3015.9546</v>
+        <v>-2994.6128</v>
       </c>
     </row>
     <row r="28">
@@ -1509,12 +1509,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>~temp + wind + sundur</t>
+          <t>~wind</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1524,39 +1524,39 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F28">
         <v>7</v>
       </c>
       <c r="G28">
-        <v>570.8579886657102</v>
+        <v>496.4758586657102</v>
       </c>
       <c r="H28">
-        <v>101.4844468369729</v>
+        <v>23.56608211398611</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>5.452930862713863E-06</v>
       </c>
       <c r="J28">
-        <v>-2916.0774</v>
+        <v>-2990.4595</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>~temp + wind</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1566,39 +1566,39 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G29">
-        <v>572.5850638395416</v>
+        <v>496.5577765517241</v>
       </c>
       <c r="H29">
-        <v>103.2115220108043</v>
+        <v>23.64800000000002</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>5.234096777487696E-06</v>
       </c>
       <c r="J29">
-        <v>-2912.3099</v>
+        <v>-2992.4238</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>~temp + sundur</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1608,23 +1608,23 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>580.6278038395416</v>
+        <v>496.6661328818444</v>
       </c>
       <c r="H30">
-        <v>111.2542620108043</v>
+        <v>23.75635633012024</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>4.958067902367472E-06</v>
       </c>
       <c r="J30">
-        <v>-2904.2672</v>
+        <v>-2996.4255</v>
       </c>
     </row>
     <row r="31">
@@ -1635,12 +1635,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>~sundur + wind</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1650,39 +1650,39 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur + wind)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F31">
         <v>6</v>
       </c>
       <c r="G31">
-        <v>580.9015138395415</v>
+        <v>497.0938638395415</v>
       </c>
       <c r="H31">
-        <v>111.5279720108042</v>
+        <v>24.18408728781742</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>4.003426623146847E-06</v>
       </c>
       <c r="J31">
-        <v>-2903.9935</v>
+        <v>-2987.8011</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>~sundur</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1692,39 +1692,39 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <v>585.0701269098712</v>
+        <v>497.4125165517241</v>
       </c>
       <c r="H32">
-        <v>115.6965850811339</v>
+        <v>24.50274000000002</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>3.413794038646918E-06</v>
       </c>
       <c r="J32">
-        <v>-2897.7904</v>
+        <v>-2991.569</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1734,39 +1734,39 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~time)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F33">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G33">
-        <v>594.6678202650958</v>
+        <v>498.1162728057554</v>
       </c>
       <c r="H33">
-        <v>125.2942784363585</v>
+        <v>25.20649625403126</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2.401146104912022E-06</v>
       </c>
       <c r="J33">
-        <v>-2930.0214</v>
+        <v>-2992.9174</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>~temp</t>
+          <t>~wind</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1776,39 +1776,39 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>596.7870169098712</v>
+        <v>498.4881765517241</v>
       </c>
       <c r="H34">
-        <v>127.4134750811339</v>
+        <v>25.57839999999999</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1.993704157324446E-06</v>
       </c>
       <c r="J34">
-        <v>-2886.0735</v>
+        <v>-2990.4934</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>~wind</t>
+          <t>~temp + wind</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1818,29 +1818,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G35">
-        <v>601.4855369098713</v>
+        <v>498.4974728057554</v>
       </c>
       <c r="H35">
-        <v>132.111995081134</v>
+        <v>25.58769625403124</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1.984458670912985E-06</v>
       </c>
       <c r="J35">
-        <v>-2881.375</v>
+        <v>-2992.5362</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1860,23 +1860,23 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~1)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G36">
-        <v>605.4463128571429</v>
+        <v>499.0658586657102</v>
       </c>
       <c r="H36">
-        <v>136.0727710284056</v>
+        <v>26.15608211398609</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1.493546117644373E-06</v>
       </c>
       <c r="J36">
-        <v>-2875.3855</v>
+        <v>-2987.8695</v>
       </c>
     </row>
     <row r="37">
@@ -1887,12 +1887,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1902,23 +1902,2291 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~time)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F37">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G37">
-        <v>633.9165618287374</v>
+        <v>499.1339486657102</v>
       </c>
       <c r="H37">
-        <v>164.5430200000001</v>
+        <v>26.22417211398607</v>
       </c>
       <c r="I37">
+        <v>1.443554156778364E-06</v>
+      </c>
+      <c r="J37">
+        <v>-2987.8014</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38">
+        <v>499.9012886657102</v>
+      </c>
+      <c r="H38">
+        <v>26.99151211398606</v>
+      </c>
+      <c r="I38">
+        <v>9.835746290952732E-07</v>
+      </c>
+      <c r="J38">
+        <v>-2987.0341</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp + wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>500.0585865517241</v>
+      </c>
+      <c r="H39">
+        <v>27.14881000000003</v>
+      </c>
+      <c r="I39">
+        <v>9.091813444065165E-07</v>
+      </c>
+      <c r="J39">
+        <v>-2988.923</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>~temp + sundur</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>500.4434828057554</v>
+      </c>
+      <c r="H40">
+        <v>27.53370625403124</v>
+      </c>
+      <c r="I40">
+        <v>7.500174298510219E-07</v>
+      </c>
+      <c r="J40">
+        <v>-2990.5902</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>500.5343428057554</v>
+      </c>
+      <c r="H41">
+        <v>27.62456625403127</v>
+      </c>
+      <c r="I41">
+        <v>7.167065241940834E-07</v>
+      </c>
+      <c r="J41">
+        <v>-2990.4993</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+      <c r="G42">
+        <v>500.5796965517241</v>
+      </c>
+      <c r="H42">
+        <v>27.66991999999999</v>
+      </c>
+      <c r="I42">
+        <v>7.006367560612773E-07</v>
+      </c>
+      <c r="J42">
+        <v>-2988.4019</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F43">
+        <v>8</v>
+      </c>
+      <c r="G43">
+        <v>500.7988965517241</v>
+      </c>
+      <c r="H43">
+        <v>27.88911999999999</v>
+      </c>
+      <c r="I43">
+        <v>6.279054344711695E-07</v>
+      </c>
+      <c r="J43">
+        <v>-2988.1827</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>~temp + sundur</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp + sundur)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44">
+        <v>502.1412465517241</v>
+      </c>
+      <c r="H44">
+        <v>29.23147</v>
+      </c>
+      <c r="I44">
+        <v>3.209272856701069E-07</v>
+      </c>
+      <c r="J44">
+        <v>-2986.8403</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>~temp + wind + sundur</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45">
+        <v>502.2144665517241</v>
+      </c>
+      <c r="H45">
+        <v>29.30468999999999</v>
+      </c>
+      <c r="I45">
+        <v>3.093906051925596E-07</v>
+      </c>
+      <c r="J45">
+        <v>-2986.7671</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F46">
+        <v>7</v>
+      </c>
+      <c r="G46">
+        <v>503.3277286657102</v>
+      </c>
+      <c r="H46">
+        <v>30.41795211398608</v>
+      </c>
+      <c r="I46">
+        <v>1.773231042278696E-07</v>
+      </c>
+      <c r="J46">
+        <v>-2983.6076</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="G47">
+        <v>504.0531586657102</v>
+      </c>
+      <c r="H47">
+        <v>31.14338211398609</v>
+      </c>
+      <c r="I47">
+        <v>1.233787035671261E-07</v>
+      </c>
+      <c r="J47">
+        <v>-2982.8822</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>~temp + wind + sundur</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>504.2359428057554</v>
+      </c>
+      <c r="H48">
+        <v>31.32616625403125</v>
+      </c>
+      <c r="I48">
+        <v>1.126027846725281E-07</v>
+      </c>
+      <c r="J48">
+        <v>-2986.7977</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="G49">
+        <v>505.4430565517241</v>
+      </c>
+      <c r="H49">
+        <v>32.53327999999999</v>
+      </c>
+      <c r="I49">
+        <v>6.157830229857741E-08</v>
+      </c>
+      <c r="J49">
+        <v>-2983.5385</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>~sundur + wind</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~sundur + wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="G50">
+        <v>507.3880165517241</v>
+      </c>
+      <c r="H50">
+        <v>34.47824000000003</v>
+      </c>
+      <c r="I50">
+        <v>2.328547028358006E-08</v>
+      </c>
+      <c r="J50">
+        <v>-2981.5935</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51">
+        <v>507.3971238395415</v>
+      </c>
+      <c r="H51">
+        <v>34.48734728781739</v>
+      </c>
+      <c r="I51">
+        <v>2.317967759757942E-08</v>
+      </c>
+      <c r="J51">
+        <v>-2977.4979</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>~sundur + wind</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>507.5516528057554</v>
+      </c>
+      <c r="H52">
+        <v>34.64187625403127</v>
+      </c>
+      <c r="I52">
+        <v>2.145615275701513E-08</v>
+      </c>
+      <c r="J52">
+        <v>-2983.482</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>~temp + sundur</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53">
+        <v>507.5714086657102</v>
+      </c>
+      <c r="H53">
+        <v>34.66163211398612</v>
+      </c>
+      <c r="I53">
+        <v>2.124525372029864E-08</v>
+      </c>
+      <c r="J53">
+        <v>-2979.3639</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>~temp + wind + sundur</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F54">
+        <v>8</v>
+      </c>
+      <c r="G54">
+        <v>507.8600565517241</v>
+      </c>
+      <c r="H54">
+        <v>34.95028000000002</v>
+      </c>
+      <c r="I54">
+        <v>1.839004660879798E-08</v>
+      </c>
+      <c r="J54">
+        <v>-2981.1215</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>~sundur</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="G55">
+        <v>507.9763065517241</v>
+      </c>
+      <c r="H55">
+        <v>35.06653</v>
+      </c>
+      <c r="I55">
+        <v>1.735159743050885E-08</v>
+      </c>
+      <c r="J55">
+        <v>-2981.0052</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56">
+        <v>508.5006786657102</v>
+      </c>
+      <c r="H56">
+        <v>35.59090211398609</v>
+      </c>
+      <c r="I56">
+        <v>1.334976145415853E-08</v>
+      </c>
+      <c r="J56">
+        <v>-2978.4347</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57">
+        <v>508.6596386657102</v>
+      </c>
+      <c r="H57">
+        <v>35.74986211398607</v>
+      </c>
+      <c r="I57">
+        <v>1.232979284427603E-08</v>
+      </c>
+      <c r="J57">
+        <v>-2978.2757</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>~temp + sundur</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="G58">
+        <v>508.9688365517241</v>
+      </c>
+      <c r="H58">
+        <v>36.05905999999999</v>
+      </c>
+      <c r="I58">
+        <v>1.056365750633062E-08</v>
+      </c>
+      <c r="J58">
+        <v>-2980.0127</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59">
+        <v>509.1729665517241</v>
+      </c>
+      <c r="H59">
+        <v>36.26319000000001</v>
+      </c>
+      <c r="I59">
+        <v>9.538674867907906E-09</v>
+      </c>
+      <c r="J59">
+        <v>-2979.8086</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>~sundur</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~sundur)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60">
+        <v>510.4318886657102</v>
+      </c>
+      <c r="H60">
+        <v>37.52211211398611</v>
+      </c>
+      <c r="I60">
+        <v>5.082958714107487E-09</v>
+      </c>
+      <c r="J60">
+        <v>-2976.5035</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61">
+        <v>512.9077386657101</v>
+      </c>
+      <c r="H61">
+        <v>39.99796211398598</v>
+      </c>
+      <c r="I61">
+        <v>1.47398337678924E-09</v>
+      </c>
+      <c r="J61">
+        <v>-2974.0276</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62">
+        <v>514.0447038395415</v>
+      </c>
+      <c r="H62">
+        <v>41.13492728781739</v>
+      </c>
+      <c r="I62">
+        <v>8.348409337082794E-10</v>
+      </c>
+      <c r="J62">
+        <v>-2970.8503</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63">
+        <v>517.4667586657101</v>
+      </c>
+      <c r="H63">
+        <v>44.55698211398601</v>
+      </c>
+      <c r="I63">
+        <v>1.508391134670948E-10</v>
+      </c>
+      <c r="J63">
+        <v>-2969.4686</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64">
+        <v>517.9602638395415</v>
+      </c>
+      <c r="H64">
+        <v>45.05048728781742</v>
+      </c>
+      <c r="I64">
+        <v>1.178557251469374E-10</v>
+      </c>
+      <c r="J64">
+        <v>-2966.9347</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>~sundur + wind</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur + wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65">
+        <v>519.0547386657101</v>
+      </c>
+      <c r="H65">
+        <v>46.14496211398603</v>
+      </c>
+      <c r="I65">
+        <v>6.818494516268773E-11</v>
+      </c>
+      <c r="J65">
+        <v>-2967.8806</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>~temp + sundur</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + sundur)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66">
+        <v>519.4978486657102</v>
+      </c>
+      <c r="H66">
+        <v>46.58807211398607</v>
+      </c>
+      <c r="I66">
+        <v>5.463467721976065E-11</v>
+      </c>
+      <c r="J66">
+        <v>-2967.4375</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>~sundur + wind</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~sundur + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67">
+        <v>519.7575786657102</v>
+      </c>
+      <c r="H67">
+        <v>46.84780211398606</v>
+      </c>
+      <c r="I67">
+        <v>4.79809374258376E-11</v>
+      </c>
+      <c r="J67">
+        <v>-2967.1778</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>~sundur</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+      <c r="G68">
+        <v>521.1780438395416</v>
+      </c>
+      <c r="H68">
+        <v>48.26826728781748</v>
+      </c>
+      <c r="I68">
+        <v>2.358406349160418E-11</v>
+      </c>
+      <c r="J68">
+        <v>-2963.717</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>~sundur + wind</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F69">
+        <v>8</v>
+      </c>
+      <c r="G69">
+        <v>521.3905465517241</v>
+      </c>
+      <c r="H69">
+        <v>48.48077000000001</v>
+      </c>
+      <c r="I69">
+        <v>2.120675688864008E-11</v>
+      </c>
+      <c r="J69">
+        <v>-2967.591</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>~sundur</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70">
+        <v>521.5965386657102</v>
+      </c>
+      <c r="H70">
+        <v>48.68676211398611</v>
+      </c>
+      <c r="I70">
+        <v>1.913126284386082E-11</v>
+      </c>
+      <c r="J70">
+        <v>-2965.3388</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71">
+        <v>521.7094638395415</v>
+      </c>
+      <c r="H71">
+        <v>48.79968728781739</v>
+      </c>
+      <c r="I71">
+        <v>1.808099177281645E-11</v>
+      </c>
+      <c r="J71">
+        <v>-2963.1855</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+      <c r="G72">
+        <v>522.6166469098712</v>
+      </c>
+      <c r="H72">
+        <v>49.70687035814706</v>
+      </c>
+      <c r="I72">
+        <v>1.148761700427675E-11</v>
+      </c>
+      <c r="J72">
+        <v>-2960.2438</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F73">
+        <v>7</v>
+      </c>
+      <c r="G73">
+        <v>522.6441386657101</v>
+      </c>
+      <c r="H73">
+        <v>49.73436211398598</v>
+      </c>
+      <c r="I73">
+        <v>1.133078995543815E-11</v>
+      </c>
+      <c r="J73">
+        <v>-2964.2912</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F74">
+        <v>6</v>
+      </c>
+      <c r="G74">
+        <v>523.2317638395415</v>
+      </c>
+      <c r="H74">
+        <v>50.32198728781736</v>
+      </c>
+      <c r="I74">
+        <v>8.44615415474981E-12</v>
+      </c>
+      <c r="J74">
+        <v>-2961.6632</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>~sundur</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75">
+        <v>525.4710838395415</v>
+      </c>
+      <c r="H75">
+        <v>52.56130728781739</v>
+      </c>
+      <c r="I75">
+        <v>2.756746577480719E-12</v>
+      </c>
+      <c r="J75">
+        <v>-2959.4239</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="G76">
+        <v>527.0039686657102</v>
+      </c>
+      <c r="H76">
+        <v>54.09419211398608</v>
+      </c>
+      <c r="I76">
+        <v>1.280958716791693E-12</v>
+      </c>
+      <c r="J76">
+        <v>-2959.9314</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77">
+        <v>527.3116938395416</v>
+      </c>
+      <c r="H77">
+        <v>54.40191728781747</v>
+      </c>
+      <c r="I77">
+        <v>1.098280975783985E-12</v>
+      </c>
+      <c r="J77">
+        <v>-2957.5833</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+      <c r="G78">
+        <v>527.5433438395415</v>
+      </c>
+      <c r="H78">
+        <v>54.63356728781741</v>
+      </c>
+      <c r="I78">
+        <v>9.781631607305152E-13</v>
+      </c>
+      <c r="J78">
+        <v>-2957.3517</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+      <c r="G79">
+        <v>533.2095369098712</v>
+      </c>
+      <c r="H79">
+        <v>60.29976035814707</v>
+      </c>
+      <c r="I79">
+        <v>5.754573091519774E-14</v>
+      </c>
+      <c r="J79">
+        <v>-2949.651</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+      <c r="G80">
+        <v>534.3100038395415</v>
+      </c>
+      <c r="H80">
+        <v>61.40022728781742</v>
+      </c>
+      <c r="I80">
+        <v>3.319324817883174E-14</v>
+      </c>
+      <c r="J80">
+        <v>-2950.585</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F81">
+        <v>8</v>
+      </c>
+      <c r="G81">
+        <v>538.7856165517242</v>
+      </c>
+      <c r="H81">
+        <v>65.87584000000004</v>
+      </c>
+      <c r="I81">
+        <v>3.541463752330999E-15</v>
+      </c>
+      <c r="J81">
+        <v>-2950.1959</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F82">
+        <v>5</v>
+      </c>
+      <c r="G82">
+        <v>540.4399469098712</v>
+      </c>
+      <c r="H82">
+        <v>67.53017035814707</v>
+      </c>
+      <c r="I82">
+        <v>1.548636632562478E-15</v>
+      </c>
+      <c r="J82">
+        <v>-2942.4206</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F83">
+        <v>7</v>
+      </c>
+      <c r="G83">
+        <v>543.3263586657101</v>
+      </c>
+      <c r="H83">
+        <v>70.41658211398601</v>
+      </c>
+      <c r="I83">
         <v>0</v>
       </c>
-      <c r="J37">
-        <v>-2869.5548</v>
+      <c r="J83">
+        <v>-2943.609</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>~temp + wind + sundur</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F84">
+        <v>7</v>
+      </c>
+      <c r="G84">
+        <v>570.8579886657102</v>
+      </c>
+      <c r="H84">
+        <v>97.94821211398607</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>-2916.0774</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
+      <c r="G85">
+        <v>572.5850638395416</v>
+      </c>
+      <c r="H85">
+        <v>99.67528728781747</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>-2912.3099</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>~temp + sundur</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F86">
+        <v>6</v>
+      </c>
+      <c r="G86">
+        <v>580.6278038395416</v>
+      </c>
+      <c r="H86">
+        <v>107.7180272878174</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>-2904.2672</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>~sundur + wind</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F87">
+        <v>6</v>
+      </c>
+      <c r="G87">
+        <v>580.9015138395415</v>
+      </c>
+      <c r="H87">
+        <v>107.9917372878174</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>-2903.9935</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>~sundur</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <v>585.0701269098712</v>
+      </c>
+      <c r="H88">
+        <v>112.1603503581471</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>-2897.7904</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F89">
+        <v>5</v>
+      </c>
+      <c r="G89">
+        <v>596.7870169098712</v>
+      </c>
+      <c r="H89">
+        <v>123.8772403581471</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>-2886.0735</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <v>601.4855369098713</v>
+      </c>
+      <c r="H90">
+        <v>128.5757603581471</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>-2881.375</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <v>605.4463128571429</v>
+      </c>
+      <c r="H91">
+        <v>132.5365363054187</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>-2875.3855</v>
       </c>
     </row>
   </sheetData>
